--- a/spliced/walkingToRunning/2023-03-24_10-04-36/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-04-36/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-15.53036594390869</v>
+        <v>-4.746825218200684</v>
       </c>
       <c r="B2" t="n">
-        <v>-35.93496704101562</v>
+        <v>-21.48864555358887</v>
       </c>
       <c r="C2" t="n">
-        <v>9.646455764770508</v>
+        <v>-7.668013572692871</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-8.549526214599609</v>
+        <v>9.662276268005373</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.356056213378906</v>
+        <v>-37.98822784423828</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.340849876403809</v>
+        <v>-8.327095985412598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2473421096801757</v>
+        <v>1.045047998428345</v>
       </c>
       <c r="B4" t="n">
-        <v>-19.03062438964844</v>
+        <v>-10.61942100524902</v>
       </c>
       <c r="C4" t="n">
-        <v>14.19175815582275</v>
+        <v>2.765533447265625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-66.04409027099609</v>
+        <v>5.131261825561523</v>
       </c>
       <c r="B5" t="n">
-        <v>-40.48963928222656</v>
+        <v>-28.12363815307617</v>
       </c>
       <c r="C5" t="n">
-        <v>-45.51393508911133</v>
+        <v>22.79096603393555</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45.92905426025391</v>
+        <v>-30.11330032348633</v>
       </c>
       <c r="B6" t="n">
-        <v>-11.65623378753662</v>
+        <v>-17.59586143493652</v>
       </c>
       <c r="C6" t="n">
-        <v>-16.03446578979492</v>
+        <v>-19.26617050170898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.481335639953612</v>
+        <v>1.400394916534424</v>
       </c>
       <c r="B7" t="n">
-        <v>-20.4488410949707</v>
+        <v>-9.052268028259276</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.56464290618896</v>
+        <v>-1.365690350532532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-8.953556060791016</v>
+        <v>29.48022842407227</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.6326904296875</v>
+        <v>-27.68916893005371</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.61329460144043</v>
+        <v>-8.951043128967285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.155851364135742</v>
+        <v>20.90522193908692</v>
       </c>
       <c r="B9" t="n">
-        <v>1.412843227386475</v>
+        <v>-18.83166885375977</v>
       </c>
       <c r="C9" t="n">
-        <v>9.780807495117188</v>
+        <v>3.978492736816406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.592353820800781</v>
+        <v>6.43248987197876</v>
       </c>
       <c r="B10" t="n">
-        <v>-28.32637023925781</v>
+        <v>-11.59229469299316</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.945913314819336</v>
+        <v>-0.6353058815002441</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-48.75472259521485</v>
+        <v>3.05394172668457</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.545803546905518</v>
+        <v>-49.75492095947266</v>
       </c>
       <c r="C11" t="n">
-        <v>-10.63641929626465</v>
+        <v>13.27557945251465</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>60.65710067749024</v>
+        <v>-3.964067220687866</v>
       </c>
       <c r="B12" t="n">
-        <v>-36.34333038330078</v>
+        <v>-5.915932655334473</v>
       </c>
       <c r="C12" t="n">
-        <v>23.02276992797852</v>
+        <v>-9.63399600982666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>19.25471115112305</v>
+        <v>-17.45916557312012</v>
       </c>
       <c r="B13" t="n">
-        <v>-67.65708923339844</v>
+        <v>-25.58492851257324</v>
       </c>
       <c r="C13" t="n">
-        <v>61.02800750732422</v>
+        <v>-11.17863464355469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-6.31251859664917</v>
+        <v>-3.193105697631836</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8578753471374512</v>
+        <v>-11.61043167114258</v>
       </c>
       <c r="C14" t="n">
-        <v>2.234546184539795</v>
+        <v>9.587863922119141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14.11783409118652</v>
+        <v>-3.173403739929199</v>
       </c>
       <c r="B15" t="n">
-        <v>-18.68854331970215</v>
+        <v>-4.077390670776367</v>
       </c>
       <c r="C15" t="n">
-        <v>13.24610137939453</v>
+        <v>2.228257656097412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-28.9881706237793</v>
+        <v>-78.23867034912109</v>
       </c>
       <c r="B16" t="n">
-        <v>-22.50347137451172</v>
+        <v>-53.79793548583984</v>
       </c>
       <c r="C16" t="n">
-        <v>-18.18040466308594</v>
+        <v>-33.76652908325195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>64.36997985839844</v>
+        <v>4.821199893951416</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0689287185668945</v>
+        <v>-2.601359367370605</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3596548438072204</v>
+        <v>-5.058528423309326</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-8.175327301025391</v>
+        <v>-9.180764198303224</v>
       </c>
       <c r="B18" t="n">
-        <v>-39.36262130737305</v>
+        <v>-23.62848663330078</v>
       </c>
       <c r="C18" t="n">
-        <v>-16.43169212341309</v>
+        <v>-4.022332191467285</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.986769676208496</v>
+        <v>1.521630764007568</v>
       </c>
       <c r="B19" t="n">
-        <v>-53.85846328735352</v>
+        <v>-8.447349548339844</v>
       </c>
       <c r="C19" t="n">
-        <v>-23.67431640625</v>
+        <v>13.54604339599609</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-4.600968360900879</v>
+        <v>16.57039260864258</v>
       </c>
       <c r="B20" t="n">
-        <v>5.562458992004395</v>
+        <v>-22.10472106933594</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.866251468658448</v>
+        <v>21.93498611450196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.178864002227783</v>
+        <v>-78.08035278320312</v>
       </c>
       <c r="B21" t="n">
-        <v>-9.016260147094728</v>
+        <v>-46.46374893188477</v>
       </c>
       <c r="C21" t="n">
-        <v>3.997007369995117</v>
+        <v>-22.17394256591797</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-11.79047203063965</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-6.283020973205566</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-7.190555095672607</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.819984912872314</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-18.76873397827148</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-7.554898738861084</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5.317728996276856</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.513343572616577</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.32539701461792</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5.113605499267578</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-16.18594360351562</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16.00972175598145</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10.6145133972168</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-29.43916702270508</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-53.48576354980469</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-6.689743518829346</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-5.009637832641602</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.467369556427002</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-15.53036594390869</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-35.93496704101562</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.646455764770508</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-8.549526214599609</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-4.356056213378906</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.340849876403809</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.2473421096801757</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-19.03062438964844</v>
+      </c>
+      <c r="C30" t="n">
+        <v>14.19175815582275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-66.04409027099609</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-40.48963928222656</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-45.51393508911133</v>
       </c>
     </row>
   </sheetData>
